--- a/biology/Zoologie/Euliini/Euliini.xlsx
+++ b/biology/Zoologie/Euliini/Euliini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Euliini sont une tribu de lépidoptères (papillons) de la sous-famille des Tortricinae (famille des Tortricidae).
 Cette tribu se compose de plus de 650 espèces pour beaucoup décrites récemment.
@@ -512,7 +524,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La grande majorité (environ 98 %) des genres se trouve dans l'écozone néotropique.
 </t>
@@ -543,7 +557,9 @@
           <t>Genres rencontrés en Europe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Eulia Hübner, 1825
 Pseudargyrotoza Obraztsov, 1954</t>
@@ -574,9 +590,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (26 février 2024)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (26 février 2024) :
 Achillas Torre-Bueno, 1914
 Abancaya Razowski, 1997
 Accuminulia Brown, 2000
